--- a/xlsx/FR/footprint_region_no_miss_FR.xlsx
+++ b/xlsx/FR/footprint_region_no_miss_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Least</t>
   </si>
 </sst>
 </file>
@@ -380,61 +383,76 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0870449884503829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0450976718221811</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.244190809128063</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.623666530599373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.209477475477302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0889778061038811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.500657091284174</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.21979975012371</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.407014081253228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.245007995158553</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.235919652926672</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0931461476724792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.296463454819087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.620916526915385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.0192324466610898</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0633875716044379</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/footprint_region_no_miss_FR.xlsx
+++ b/xlsx/FR/footprint_region_no_miss_FR.xlsx
@@ -392,16 +392,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0870449884503829</v>
+        <v>0.0781767521314312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0450976718221811</v>
+        <v>0.0590778257498015</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244190809128063</v>
+        <v>0.237980951123337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.623666530599373</v>
+        <v>0.62476447099543</v>
       </c>
     </row>
     <row r="3">
@@ -409,16 +409,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.209477475477302</v>
+        <v>0.203414758891609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0889778061038811</v>
+        <v>0.0966458026052163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.500657091284174</v>
+        <v>0.497535195465706</v>
       </c>
       <c r="E3" t="n">
-        <v>0.21979975012371</v>
+        <v>0.227601255746103</v>
       </c>
     </row>
     <row r="4">
@@ -426,16 +426,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.407014081253228</v>
+        <v>0.385796387602613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.245007995158553</v>
+        <v>0.266758990766958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235919652926672</v>
+        <v>0.232067039828062</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0931461476724792</v>
+        <v>0.0901805690937345</v>
       </c>
     </row>
     <row r="5">
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.296463454819087</v>
+        <v>0.332612101374347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.620916526915385</v>
+        <v>0.577517380878024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0192324466610898</v>
+        <v>0.0324168135828957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0633875716044379</v>
+        <v>0.0574537041647325</v>
       </c>
     </row>
   </sheetData>
